--- a/biology/Médecine/Health_Service_Executive_(Irlande)/Health_Service_Executive_(Irlande).xlsx
+++ b/biology/Médecine/Health_Service_Executive_(Irlande)/Health_Service_Executive_(Irlande).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Health Service Executive (en irlandais : Feidhmeannacht na Seirbhíse Sláinte) est le système de la santé publique de l'Irlande.
 </t>
@@ -511,9 +523,11 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Par l'entremise d'un système de carte médicale générale, sous le nom en anglais de National Shared Services Primary Care Reimbursement Service du HSE, le HSE-PCRS fournit des services de santé gratuits (y compris les médicaments) aux personnes admissibles en Irlande[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par l'entremise d'un système de carte médicale générale, sous le nom en anglais de National Shared Services Primary Care Reimbursement Service du HSE, le HSE-PCRS fournit des services de santé gratuits (y compris les médicaments) aux personnes admissibles en Irlande.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette organisation de santé a été créée en Irlande par la loi sur la santé de 2004 et est entré officiellement en fonction le 1er janvier 2005. Elle a remplacé dix conseils régionaux de la santé, une autorité sanitaire régionale de l'Est et un certain nombre d'autres agences et organisations différentes. Le ministre de la Santé a conservé la responsabilité générale de l'exécutif au sein du gouvernement. Le HSE a adopté une structure régionale (HSE Dublin Mid-Leinster, HSE Dublin North East, HSE South et HSE West)[2].
-Le HSE a fait l'objet de critiques concernant une lourdeur administrative, mais aussi des coupes budgétaires, des réductions de services, etc. Il a indiqué sur ces derniers points devoir maîtriser ses coûts et atteindre un seuil de rentabilité requis pour 2010. Un nouveau regroupement d'hôpitaux a été également annoncé par le ministre irlandais de la Santé, James Reilly, en mai 2013, dans le cadre d'une restructuration des hôpitaux publics irlandais[3]. Il a été secoué enfin par plusieurs scandales médicaux, par exemple concernant des diagnostics erronés de cancer en 2008[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette organisation de santé a été créée en Irlande par la loi sur la santé de 2004 et est entré officiellement en fonction le 1er janvier 2005. Elle a remplacé dix conseils régionaux de la santé, une autorité sanitaire régionale de l'Est et un certain nombre d'autres agences et organisations différentes. Le ministre de la Santé a conservé la responsabilité générale de l'exécutif au sein du gouvernement. Le HSE a adopté une structure régionale (HSE Dublin Mid-Leinster, HSE Dublin North East, HSE South et HSE West).
+Le HSE a fait l'objet de critiques concernant une lourdeur administrative, mais aussi des coupes budgétaires, des réductions de services, etc. Il a indiqué sur ces derniers points devoir maîtriser ses coûts et atteindre un seuil de rentabilité requis pour 2010. Un nouveau regroupement d'hôpitaux a été également annoncé par le ministre irlandais de la Santé, James Reilly, en mai 2013, dans le cadre d'une restructuration des hôpitaux publics irlandais. Il a été secoué enfin par plusieurs scandales médicaux, par exemple concernant des diagnostics erronés de cancer en 2008,.
 </t>
         </is>
       </c>
@@ -576,15 +592,55 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les faits
-Le 14 mai 2021, l'Irish Health Service Executive (HSE) a été contraint de fermer ses systèmes informatiques à l'échelle nationale pour contrer une cyberattaque impliquant un rançongiciel[6].
-Impact de cette cyberattaque
-Le rançongiciel qui aurait été utilisé est Conti[6]. Le HSE a affirmé qu'il s'agissait d'une menace de type vulnérabilité zero-day[7]. Le ministre de la Santé Stephen Donnelly a déclaré que l'attaque avait « un impact sévère » sur les services de santé et de soins sociaux[7].
-Le programme de vaccination COVID-19 n'a pas été affecté par l'attaque et se poursuit comme prévu, mais le système d'orientation vers les médecins généralistes et les contacts adhoc sur la lutte contre la COVID-19 a été hors service, ce qui obligeait ces personnes à se rendre sur des sites sans rendez-vous plutôt que de prendre rendez-vous[6].
-Les visites ambulatoires ont du être annulées, sauf pour les femmes enceintes d’au moins trente-six semaines. Les équipes médicales sont revenues à l'usage de dossiers médicaux sur papier par patient. Les services de protection de l’enfance ont également été affectés, mais pas les services d'urgence ni les appels d'ambulance[6]
-Le HSE s'est fait aider par le Centre national irlandais de cybersécurité, le Garda Síochána, et par divers partenaires, notamment internationaux[9].
-Le ministre d'État chargé des marchés publics et de l'administration en ligne, Ossian Smyth, a déclaré qu'il s'agissait d'une attaque internationale, « peut-être la plus importante cyberattaque contre l'État irlandais »[10].
-Une demande de rançon a été formulée par les attaquants, pour décrypter les données et de ne pas publier les « données privées ». Le Taoiseach Micheál Martin a déclaré que la rançon ne serait pas payée, et l'attaque traitée de manière méthodique[7].
+          <t>Les faits</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 14 mai 2021, l'Irish Health Service Executive (HSE) a été contraint de fermer ses systèmes informatiques à l'échelle nationale pour contrer une cyberattaque impliquant un rançongiciel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Health_Service_Executive_(Irlande)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Health_Service_Executive_(Irlande)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Cyberattaque de mai 2021</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Impact de cette cyberattaque</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rançongiciel qui aurait été utilisé est Conti. Le HSE a affirmé qu'il s'agissait d'une menace de type vulnérabilité zero-day. Le ministre de la Santé Stephen Donnelly a déclaré que l'attaque avait « un impact sévère » sur les services de santé et de soins sociaux.
+Le programme de vaccination COVID-19 n'a pas été affecté par l'attaque et se poursuit comme prévu, mais le système d'orientation vers les médecins généralistes et les contacts adhoc sur la lutte contre la COVID-19 a été hors service, ce qui obligeait ces personnes à se rendre sur des sites sans rendez-vous plutôt que de prendre rendez-vous.
+Les visites ambulatoires ont du être annulées, sauf pour les femmes enceintes d’au moins trente-six semaines. Les équipes médicales sont revenues à l'usage de dossiers médicaux sur papier par patient. Les services de protection de l’enfance ont également été affectés, mais pas les services d'urgence ni les appels d'ambulance
+Le HSE s'est fait aider par le Centre national irlandais de cybersécurité, le Garda Síochána, et par divers partenaires, notamment internationaux.
+Le ministre d'État chargé des marchés publics et de l'administration en ligne, Ossian Smyth, a déclaré qu'il s'agissait d'une attaque internationale, « peut-être la plus importante cyberattaque contre l'État irlandais ».
+Une demande de rançon a été formulée par les attaquants, pour décrypter les données et de ne pas publier les « données privées ». Le Taoiseach Micheál Martin a déclaré que la rançon ne serait pas payée, et l'attaque traitée de manière méthodique.
 </t>
         </is>
       </c>
